--- a/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_9_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.96616365765951</v>
+        <v>89.72915638351994</v>
       </c>
       <c r="D2" t="n">
-        <v>3.399418969007179</v>
+        <v>3.467940545960817</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.58597239105791</v>
+        <v>89.203155734365</v>
       </c>
       <c r="D3" t="n">
-        <v>3.436311970563636</v>
+        <v>4.027572179091766</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.92645052606245</v>
+        <v>87.96806108860081</v>
       </c>
       <c r="D4" t="n">
-        <v>3.710880047470791</v>
+        <v>3.350918335978993</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.88844738363085</v>
+        <v>87.23429987475922</v>
       </c>
       <c r="D5" t="n">
-        <v>3.667708647756825</v>
+        <v>3.255148765771704</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.01774711412098</v>
+        <v>86.11655363313268</v>
       </c>
       <c r="D6" t="n">
-        <v>3.464824971165922</v>
+        <v>3.35705975930479</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.39016501541039</v>
+        <v>84.75554760356083</v>
       </c>
       <c r="D7" t="n">
-        <v>3.559735095228999</v>
+        <v>3.738071112721458</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.56561582824068</v>
+        <v>84.23420245887556</v>
       </c>
       <c r="D8" t="n">
-        <v>3.433722175666592</v>
+        <v>3.849007268798085</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.72808609837182</v>
+        <v>82.56334226627652</v>
       </c>
       <c r="D9" t="n">
-        <v>3.57001484763684</v>
+        <v>3.520892787808266</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.54221698137236</v>
+        <v>82.01174930243594</v>
       </c>
       <c r="D10" t="n">
-        <v>3.100136081078837</v>
+        <v>3.384272129401945</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.30898312568104</v>
+        <v>81.83546522243441</v>
       </c>
       <c r="D11" t="n">
-        <v>3.327373250356872</v>
+        <v>3.732094645345469</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.72097600201946</v>
+        <v>80.62845916619939</v>
       </c>
       <c r="D12" t="n">
-        <v>3.636138134637366</v>
+        <v>2.978290852031764</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.61668494308266</v>
+        <v>79.10966973651675</v>
       </c>
       <c r="D13" t="n">
-        <v>3.764365545252253</v>
+        <v>3.429253903922248</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.3587505214935</v>
+        <v>78.01620351127951</v>
       </c>
       <c r="D14" t="n">
-        <v>3.179977722492654</v>
+        <v>3.948182553992062</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.03899472982184</v>
+        <v>76.84469416832628</v>
       </c>
       <c r="D15" t="n">
-        <v>3.348273569926568</v>
+        <v>3.50422859474276</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.73994163287234</v>
+        <v>76.65121162116408</v>
       </c>
       <c r="D16" t="n">
-        <v>3.828967761162751</v>
+        <v>3.379892496976038</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.34055291798555</v>
+        <v>75.18708313414268</v>
       </c>
       <c r="D17" t="n">
-        <v>3.49654752050025</v>
+        <v>3.613672428748144</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.2842505635586</v>
+        <v>73.99630613978734</v>
       </c>
       <c r="D18" t="n">
-        <v>2.986785037027216</v>
+        <v>3.667780605234412</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.16346503177265</v>
+        <v>73.07516430581153</v>
       </c>
       <c r="D19" t="n">
-        <v>3.51282818355559</v>
+        <v>3.215130539499301</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.06284407428512</v>
+        <v>71.34529129389377</v>
       </c>
       <c r="D20" t="n">
-        <v>3.475067509408891</v>
+        <v>3.552144287014984</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.95883632867415</v>
+        <v>70.64690792748462</v>
       </c>
       <c r="D21" t="n">
-        <v>3.607197800365893</v>
+        <v>3.679957434708658</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.56709252359938</v>
+        <v>70.60052140269602</v>
       </c>
       <c r="D22" t="n">
-        <v>3.358916749277262</v>
+        <v>3.679364583473535</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.83030326322563</v>
+        <v>68.9365210898214</v>
       </c>
       <c r="D23" t="n">
-        <v>3.710898755547646</v>
+        <v>3.618658145301842</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.16301587698585</v>
+        <v>68.47885178113549</v>
       </c>
       <c r="D24" t="n">
-        <v>3.457474158218937</v>
+        <v>3.243957048220317</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.32725657083274</v>
+        <v>66.99980292881645</v>
       </c>
       <c r="D25" t="n">
-        <v>3.60645136155725</v>
+        <v>3.786971392314536</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.79358781410797</v>
+        <v>65.8722084840046</v>
       </c>
       <c r="D26" t="n">
-        <v>3.642611516017574</v>
+        <v>3.566065165719297</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.86206474429214</v>
+        <v>64.42490948328076</v>
       </c>
       <c r="D27" t="n">
-        <v>3.749508233892993</v>
+        <v>3.692602650613611</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.6577142640855</v>
+        <v>64.16058204325967</v>
       </c>
       <c r="D28" t="n">
-        <v>4.145626547898629</v>
+        <v>3.715994233037132</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.87023008170696</v>
+        <v>63.34940789537188</v>
       </c>
       <c r="D29" t="n">
-        <v>3.732598655705475</v>
+        <v>3.75905808957778</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.42910981023386</v>
+        <v>62.58209906569765</v>
       </c>
       <c r="D30" t="n">
-        <v>3.868609632427655</v>
+        <v>3.610629724707624</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.18762408760472</v>
+        <v>60.84582972699943</v>
       </c>
       <c r="D31" t="n">
-        <v>3.548258406851945</v>
+        <v>3.411311526218281</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.25673058652869</v>
+        <v>60.40427071291284</v>
       </c>
       <c r="D32" t="n">
-        <v>4.191446591651068</v>
+        <v>4.067441320817985</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.63966844595033</v>
+        <v>59.12530668816142</v>
       </c>
       <c r="D33" t="n">
-        <v>4.273011702041904</v>
+        <v>3.8380075210808</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.92278584015524</v>
+        <v>58.30724593499979</v>
       </c>
       <c r="D34" t="n">
-        <v>3.390998673841999</v>
+        <v>3.89925528809692</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.34455696834166</v>
+        <v>56.92187079839729</v>
       </c>
       <c r="D35" t="n">
-        <v>3.62278955544198</v>
+        <v>3.32906136229294</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.0101963258119</v>
+        <v>55.71267794896877</v>
       </c>
       <c r="D36" t="n">
-        <v>3.943436628516793</v>
+        <v>4.184115488525376</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.98737226957953</v>
+        <v>55.02566109842424</v>
       </c>
       <c r="D37" t="n">
-        <v>3.505512883480418</v>
+        <v>3.651458559500391</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.00640940810899</v>
+        <v>53.64103440376796</v>
       </c>
       <c r="D38" t="n">
-        <v>3.726096265797927</v>
+        <v>3.848386728222273</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.50964195553034</v>
+        <v>53.0689826300049</v>
       </c>
       <c r="D39" t="n">
-        <v>3.137247846739006</v>
+        <v>3.580566036536934</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.79003415827759</v>
+        <v>52.55574881533006</v>
       </c>
       <c r="D40" t="n">
-        <v>3.828888457173958</v>
+        <v>3.918526919868521</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.57066381395303</v>
+        <v>51.2459185746301</v>
       </c>
       <c r="D41" t="n">
-        <v>3.908578772482248</v>
+        <v>3.496987454511494</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.61006578980523</v>
+        <v>50.57896696413001</v>
       </c>
       <c r="D42" t="n">
-        <v>4.315873655421869</v>
+        <v>3.379724195389824</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.72189470643065</v>
+        <v>49.12036259507991</v>
       </c>
       <c r="D43" t="n">
-        <v>4.237667670409281</v>
+        <v>3.997696530015388</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.06435046612699</v>
+        <v>47.97760283944022</v>
       </c>
       <c r="D44" t="n">
-        <v>3.873078500235452</v>
+        <v>3.771158984511465</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.88551465999932</v>
+        <v>46.33439696953634</v>
       </c>
       <c r="D45" t="n">
-        <v>3.555432157665547</v>
+        <v>3.969780446445897</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.20621482720886</v>
+        <v>46.20114571592099</v>
       </c>
       <c r="D46" t="n">
-        <v>3.985824197172728</v>
+        <v>3.600443903687172</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.91372145630803</v>
+        <v>44.90825021056164</v>
       </c>
       <c r="D47" t="n">
-        <v>4.238106847240796</v>
+        <v>4.035601125156828</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.94742151540545</v>
+        <v>44.40130339857946</v>
       </c>
       <c r="D48" t="n">
-        <v>4.59276045902321</v>
+        <v>3.739318346821876</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.93288142886627</v>
+        <v>43.17980681687546</v>
       </c>
       <c r="D49" t="n">
-        <v>3.842502957355893</v>
+        <v>3.622198597050547</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.81525866732285</v>
+        <v>42.31496039893217</v>
       </c>
       <c r="D50" t="n">
-        <v>3.800452829167832</v>
+        <v>3.555696337812194</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.9755942232103</v>
+        <v>40.16697595964951</v>
       </c>
       <c r="D51" t="n">
-        <v>3.826478275966555</v>
+        <v>3.9930552790343</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.32571045682801</v>
+        <v>40.0718676534826</v>
       </c>
       <c r="D52" t="n">
-        <v>4.162044940932152</v>
+        <v>3.880856149063851</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.84307706394063</v>
+        <v>38.71759309098528</v>
       </c>
       <c r="D53" t="n">
-        <v>3.637179941537909</v>
+        <v>3.643904797513662</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.97532990069534</v>
+        <v>37.86202904379306</v>
       </c>
       <c r="D54" t="n">
-        <v>4.027702788837405</v>
+        <v>3.468258702095143</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.35094549846441</v>
+        <v>37.21128454806215</v>
       </c>
       <c r="D55" t="n">
-        <v>3.870101250404257</v>
+        <v>3.28135056502659</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.62103347077333</v>
+        <v>35.85635020727743</v>
       </c>
       <c r="D56" t="n">
-        <v>4.275919173712027</v>
+        <v>3.769818709977464</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.1563964293871</v>
+        <v>34.71975615372289</v>
       </c>
       <c r="D57" t="n">
-        <v>3.482036168513494</v>
+        <v>3.949907111366718</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.62463237989603</v>
+        <v>33.09680533334758</v>
       </c>
       <c r="D58" t="n">
-        <v>4.276995100428533</v>
+        <v>3.753399703097988</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98628990516076</v>
+        <v>32.59840826627883</v>
       </c>
       <c r="D59" t="n">
-        <v>4.400839255890378</v>
+        <v>3.865162178136965</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.27737541711879</v>
+        <v>31.53821801039497</v>
       </c>
       <c r="D60" t="n">
-        <v>3.688822386722628</v>
+        <v>4.190396752083808</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.68002431256026</v>
+        <v>30.50892886091673</v>
       </c>
       <c r="D61" t="n">
-        <v>3.653760449927216</v>
+        <v>3.42776025662907</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.42018126579804</v>
+        <v>30.40047677426094</v>
       </c>
       <c r="D62" t="n">
-        <v>3.945112446206656</v>
+        <v>3.919391454135828</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.42023214046162</v>
+        <v>29.47762592006669</v>
       </c>
       <c r="D63" t="n">
-        <v>4.246011442074002</v>
+        <v>4.039988785332728</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.92443395423711</v>
+        <v>28.83052674794264</v>
       </c>
       <c r="D64" t="n">
-        <v>3.980311394446916</v>
+        <v>4.158881089745255</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.17402781915471</v>
+        <v>26.90976775073065</v>
       </c>
       <c r="D65" t="n">
-        <v>3.855380810809445</v>
+        <v>3.723961833526359</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.70871617165866</v>
+        <v>26.20849865141422</v>
       </c>
       <c r="D66" t="n">
-        <v>4.359844672484547</v>
+        <v>4.042982945516281</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.38645685235257</v>
+        <v>25.22131753072262</v>
       </c>
       <c r="D67" t="n">
-        <v>3.857643492974506</v>
+        <v>4.690410451065449</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.38536950358109</v>
+        <v>24.45299324308486</v>
       </c>
       <c r="D68" t="n">
-        <v>4.162814848851601</v>
+        <v>3.94919607055769</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.22282295563562</v>
+        <v>23.30204711227788</v>
       </c>
       <c r="D69" t="n">
-        <v>3.937780867207886</v>
+        <v>3.956486069946187</v>
       </c>
     </row>
   </sheetData>
